--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.8858047429277</v>
+        <v>300.3623468248556</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.4791292719782</v>
+        <v>410.9690139772982</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.4530509695451</v>
+        <v>371.7467080819378</v>
       </c>
       <c r="AD2" t="n">
-        <v>275885.8047429277</v>
+        <v>300362.3468248557</v>
       </c>
       <c r="AE2" t="n">
-        <v>377479.1292719782</v>
+        <v>410969.0139772982</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299905750172006e-06</v>
+        <v>6.105689600758907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.605208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>341453.0509695451</v>
+        <v>371746.7080819378</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4426923055365</v>
+        <v>120.7236337737861</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3760757663077</v>
+        <v>165.1794016800579</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2152713423419</v>
+        <v>149.4149114145051</v>
       </c>
       <c r="AD3" t="n">
-        <v>108442.6923055365</v>
+        <v>120723.6337737861</v>
       </c>
       <c r="AE3" t="n">
-        <v>148376.0757663077</v>
+        <v>165179.4016800578</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.001685347571899e-06</v>
+        <v>1.110468922083207e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.532291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134215.2713423419</v>
+        <v>149414.9114145051</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.97632308444125</v>
+        <v>106.0866723520987</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.5825511868478</v>
+        <v>145.1524653257511</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.3108129683531</v>
+        <v>131.2993177578653</v>
       </c>
       <c r="AD4" t="n">
-        <v>93976.32308444125</v>
+        <v>106086.6723520987</v>
       </c>
       <c r="AE4" t="n">
-        <v>128582.5511868478</v>
+        <v>145152.4653257511</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.800986125873951e-06</v>
+        <v>1.258360492916797e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>116310.8129683531</v>
+        <v>131299.3177578653</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.70329677535614</v>
+        <v>99.81364604301358</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.9995198443728</v>
+        <v>136.5694339832762</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.5469340908411</v>
+        <v>123.5354388803533</v>
       </c>
       <c r="AD5" t="n">
-        <v>87703.29677535614</v>
+        <v>99813.64604301358</v>
       </c>
       <c r="AE5" t="n">
-        <v>119999.5198443728</v>
+        <v>136569.4339832762</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2134014024317e-06</v>
+        <v>1.334668116707007e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.10625</v>
       </c>
       <c r="AH5" t="n">
-        <v>108546.9340908411</v>
+        <v>123535.4388803533</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.49786872800372</v>
+        <v>96.60821799566114</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.6137117764825</v>
+        <v>132.1836259153858</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.5797013894285</v>
+        <v>119.5682061789407</v>
       </c>
       <c r="AD6" t="n">
-        <v>84497.86872800373</v>
+        <v>96608.21799566114</v>
       </c>
       <c r="AE6" t="n">
-        <v>115613.7117764825</v>
+        <v>132183.6259153858</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.415888987809185e-06</v>
+        <v>1.372133621419002e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.048958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>104579.7013894285</v>
+        <v>119568.2061789407</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.04040951039386</v>
+        <v>79.23601012407187</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.72764590621574</v>
+        <v>108.4142046977683</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.97328812150843</v>
+        <v>98.06730516173289</v>
       </c>
       <c r="AD7" t="n">
-        <v>67040.40951039386</v>
+        <v>79236.01012407186</v>
       </c>
       <c r="AE7" t="n">
-        <v>91727.64590621574</v>
+        <v>108414.2046977683</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.758863276874367e-06</v>
+        <v>1.435592844457836e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>82973.28812150843</v>
+        <v>98067.30516173289</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.87300681499671</v>
+        <v>76.06860742867471</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.39386580243068</v>
+        <v>104.0804245939833</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.05311790832866</v>
+        <v>94.14713494855312</v>
       </c>
       <c r="AD8" t="n">
-        <v>63873.00681499671</v>
+        <v>76068.60742867472</v>
       </c>
       <c r="AE8" t="n">
-        <v>87393.86580243068</v>
+        <v>104080.4245939832</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.941364695683614e-06</v>
+        <v>1.469360385088028e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.913541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>79053.11790832866</v>
+        <v>94147.13494855311</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.63543392462304</v>
+        <v>74.83103453830105</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.7005639759597</v>
+        <v>102.3871227675123</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.52142243161147</v>
+        <v>92.61543947183593</v>
       </c>
       <c r="AD9" t="n">
-        <v>62635.43392462304</v>
+        <v>74831.03453830106</v>
       </c>
       <c r="AE9" t="n">
-        <v>85700.5639759597</v>
+        <v>102387.1227675122</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.001469079815836e-06</v>
+        <v>1.480481269771992e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.898958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>77521.42243161147</v>
+        <v>92615.43947183593</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>62.8154474368665</v>
+        <v>75.01104805054452</v>
       </c>
       <c r="AB10" t="n">
-        <v>85.94686640504673</v>
+        <v>102.6334251965993</v>
       </c>
       <c r="AC10" t="n">
-        <v>77.74421810255416</v>
+        <v>92.8382351427786</v>
       </c>
       <c r="AD10" t="n">
-        <v>62815.4474368665</v>
+        <v>75011.04805054452</v>
       </c>
       <c r="AE10" t="n">
-        <v>85946.86640504673</v>
+        <v>102633.4251965993</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.004094999510933e-06</v>
+        <v>1.480967133665951e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>1.898958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>77744.21810255415</v>
+        <v>92838.23514277861</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.0964589267763</v>
+        <v>198.6238831922104</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.5746998140914</v>
+        <v>271.7659596507455</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.7100267091069</v>
+        <v>245.8289978876779</v>
       </c>
       <c r="AD2" t="n">
-        <v>175096.4589267762</v>
+        <v>198623.8831922104</v>
       </c>
       <c r="AE2" t="n">
-        <v>239574.6998140914</v>
+        <v>271765.9596507455</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319802387009568e-06</v>
+        <v>8.234210035104216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.639583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>216710.0267091069</v>
+        <v>245828.9978876779</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.32551842440685</v>
+        <v>110.0039792111034</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5333121239424</v>
+        <v>150.5122973896202</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6936416335587</v>
+        <v>136.1476149721321</v>
       </c>
       <c r="AD3" t="n">
-        <v>98325.51842440685</v>
+        <v>110003.9792111034</v>
       </c>
       <c r="AE3" t="n">
-        <v>134533.3121239424</v>
+        <v>150512.2973896202</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.38145765562813e-06</v>
+        <v>1.216404315729394e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.463541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121693.6416335587</v>
+        <v>136147.6149721321</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.56108188558223</v>
+        <v>92.2395426722787</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.2272263399062</v>
+        <v>126.2062116055841</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.70729456293759</v>
+        <v>114.1612679015109</v>
       </c>
       <c r="AD4" t="n">
-        <v>80561.08188558223</v>
+        <v>92239.54267227871</v>
       </c>
       <c r="AE4" t="n">
-        <v>110227.2263399062</v>
+        <v>126206.2116055841</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.523132650657734e-06</v>
+        <v>1.43402518952608e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.089583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>99707.29456293759</v>
+        <v>114161.2679015109</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.54934526452556</v>
+        <v>74.31305739724263</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.58277367325071</v>
+        <v>101.6784035915778</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.41487387007329</v>
+        <v>91.97435945935882</v>
       </c>
       <c r="AD5" t="n">
-        <v>62549.34526452556</v>
+        <v>74313.05739724264</v>
       </c>
       <c r="AE5" t="n">
-        <v>85582.77367325072</v>
+        <v>101678.4035915778</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.997007004179605e-06</v>
+        <v>1.524352954723911e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.965625</v>
       </c>
       <c r="AH5" t="n">
-        <v>77414.87387007329</v>
+        <v>91974.35945935882</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.71895573472744</v>
+        <v>71.48266786744452</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.71010985060957</v>
+        <v>97.80573976893665</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.91181164734597</v>
+        <v>88.4712972366315</v>
       </c>
       <c r="AD6" t="n">
-        <v>59718.95573472744</v>
+        <v>71482.66786744451</v>
       </c>
       <c r="AE6" t="n">
-        <v>81710.10985060957</v>
+        <v>97805.73976893665</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.17055971327201e-06</v>
+        <v>1.557434779557512e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.923958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73911.81164734597</v>
+        <v>88471.29723663149</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.43244152616614</v>
+        <v>70.1961536588832</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.9498443534557</v>
+        <v>96.04547427178279</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.31954341869175</v>
+        <v>86.87902900797729</v>
       </c>
       <c r="AD7" t="n">
-        <v>58432.44152616613</v>
+        <v>70196.15365888321</v>
       </c>
       <c r="AE7" t="n">
-        <v>79949.8443534557</v>
+        <v>96045.47427178279</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.239377135312129e-06</v>
+        <v>1.57055244227414e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>72319.54341869176</v>
+        <v>86879.0290079773</v>
       </c>
     </row>
     <row r="8">
@@ -4758,28 +4758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.63293968207424</v>
+        <v>70.39665181479131</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.2241747757234</v>
+        <v>96.31980469405046</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.56769213048348</v>
+        <v>87.12717771976901</v>
       </c>
       <c r="AD8" t="n">
-        <v>58632.93968207424</v>
+        <v>70396.65181479132</v>
       </c>
       <c r="AE8" t="n">
-        <v>80224.1747757234</v>
+        <v>96319.80469405046</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.235302419533438e-06</v>
+        <v>1.569775738560655e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.909375</v>
       </c>
       <c r="AH8" t="n">
-        <v>72567.69213048348</v>
+        <v>87127.17771976901</v>
       </c>
     </row>
   </sheetData>
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.58364823117211</v>
+        <v>78.96183937634227</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.8391732068708</v>
+        <v>108.0390721851652</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.88329422013683</v>
+        <v>97.72797476963065</v>
       </c>
       <c r="AD2" t="n">
-        <v>68583.6482311721</v>
+        <v>78961.83937634226</v>
       </c>
       <c r="AE2" t="n">
-        <v>93839.17320687079</v>
+        <v>108039.0721851651</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.702934526890291e-06</v>
+        <v>1.640523466170815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.277083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84883.29422013683</v>
+        <v>97727.97476963064</v>
       </c>
     </row>
     <row r="3">
@@ -5161,28 +5161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.84154951378365</v>
+        <v>69.21974065895381</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.50960395068432</v>
+        <v>94.70950292897868</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.82588034558857</v>
+        <v>85.67056089508243</v>
       </c>
       <c r="AD3" t="n">
-        <v>58841.54951378366</v>
+        <v>69219.74065895382</v>
       </c>
       <c r="AE3" t="n">
-        <v>80509.60395068432</v>
+        <v>94709.50292897868</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.759978819341218e-06</v>
+        <v>1.865646237303564e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.002083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72825.88034558858</v>
+        <v>85670.56089508242</v>
       </c>
     </row>
   </sheetData>
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.28040749300976</v>
+        <v>115.1386587308385</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6303687730226</v>
+        <v>157.5377924345914</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4495055077067</v>
+        <v>142.5026066303576</v>
       </c>
       <c r="AD2" t="n">
-        <v>93280.40749300976</v>
+        <v>115138.6587308385</v>
       </c>
       <c r="AE2" t="n">
-        <v>127630.3687730226</v>
+        <v>157537.7924345914</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.243368381411214e-06</v>
+        <v>1.267619634439334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>115449.5055077067</v>
+        <v>142502.6066303576</v>
       </c>
     </row>
     <row r="3">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.22413663898047</v>
+        <v>78.11068133916007</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.97902946901667</v>
+        <v>106.8744802082506</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.20067998989477</v>
+        <v>96.67452981647739</v>
       </c>
       <c r="AD3" t="n">
-        <v>67224.13663898048</v>
+        <v>78110.68133916007</v>
       </c>
       <c r="AE3" t="n">
-        <v>91979.02946901666</v>
+        <v>106874.4802082506</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.24796746201966e-06</v>
+        <v>1.674622553140077e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.034375</v>
       </c>
       <c r="AH3" t="n">
-        <v>83200.67998989476</v>
+        <v>96674.52981647738</v>
       </c>
     </row>
     <row r="4">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.35943045466524</v>
+        <v>62.33122650086543</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.27223856620718</v>
+        <v>85.2843339580904</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.56555474517013</v>
+        <v>77.14491682246499</v>
       </c>
       <c r="AD4" t="n">
-        <v>51359.43045466524</v>
+        <v>62331.22650086544</v>
       </c>
       <c r="AE4" t="n">
-        <v>70272.23856620718</v>
+        <v>85284.3339580904</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.699537921148928e-06</v>
+        <v>1.766306968563865e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.929166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>63565.55474517013</v>
+        <v>77144.91682246499</v>
       </c>
     </row>
     <row r="5">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.03846729503562</v>
+        <v>62.01026334123581</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.83308261130691</v>
+        <v>84.84517800319011</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.16831121824614</v>
+        <v>76.74767329554099</v>
       </c>
       <c r="AD5" t="n">
-        <v>51038.46729503562</v>
+        <v>62010.26334123581</v>
       </c>
       <c r="AE5" t="n">
-        <v>69833.08261130691</v>
+        <v>84845.17800319011</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.760917994259257e-06</v>
+        <v>1.778769245508732e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.915625</v>
       </c>
       <c r="AH5" t="n">
-        <v>63168.31121824614</v>
+        <v>76747.673295541</v>
       </c>
     </row>
   </sheetData>
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.92394262612</v>
+        <v>68.88517957709277</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.62233784191042</v>
+        <v>94.25174169698337</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.92785507245912</v>
+        <v>85.2564877525967</v>
       </c>
       <c r="AD2" t="n">
-        <v>58923.94262612</v>
+        <v>68885.17957709277</v>
       </c>
       <c r="AE2" t="n">
-        <v>80622.33784191043</v>
+        <v>94251.74169698337</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.322656003422713e-06</v>
+        <v>1.853292930481909e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.188541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72927.85507245912</v>
+        <v>85256.4877525967</v>
       </c>
     </row>
     <row r="3">
@@ -6179,28 +6179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.33664699799853</v>
+        <v>65.2978839489713</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.71404170320343</v>
+        <v>89.34344555827639</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.48799982839185</v>
+        <v>80.81663250852944</v>
       </c>
       <c r="AD3" t="n">
-        <v>55336.64699799853</v>
+        <v>65297.88394897131</v>
       </c>
       <c r="AE3" t="n">
-        <v>75714.04170320343</v>
+        <v>89343.44555827639</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.860639651271413e-06</v>
+        <v>1.973091380743801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.05625</v>
       </c>
       <c r="AH3" t="n">
-        <v>68487.99982839185</v>
+        <v>80816.63250852944</v>
       </c>
     </row>
   </sheetData>
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.9646195747772</v>
+        <v>216.7190802299605</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.0227055002873</v>
+        <v>296.5246065415348</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.8247490456115</v>
+        <v>268.2247142681973</v>
       </c>
       <c r="AD2" t="n">
-        <v>192964.6195747772</v>
+        <v>216719.0802299605</v>
       </c>
       <c r="AE2" t="n">
-        <v>264022.7055002872</v>
+        <v>296524.6065415348</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.04499264711277e-06</v>
+        <v>7.648125137007305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.851041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>238824.7490456115</v>
+        <v>268224.7142681973</v>
       </c>
     </row>
     <row r="3">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.2696075755725</v>
+        <v>116.2321787577358</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.6662771352689</v>
+        <v>159.0339947780902</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.0504078788949</v>
+        <v>143.8560135221266</v>
       </c>
       <c r="AD3" t="n">
-        <v>104269.6075755725</v>
+        <v>116232.1787577358</v>
       </c>
       <c r="AE3" t="n">
-        <v>142666.2771352689</v>
+        <v>159033.9947780902</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.134790852322661e-06</v>
+        <v>1.159943965817136e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.539583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129050.4078788949</v>
+        <v>143856.0135221266</v>
       </c>
     </row>
     <row r="4">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.52166042471703</v>
+        <v>94.31363940628813</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9097763917698</v>
+        <v>129.0440822597443</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.1338258028348</v>
+        <v>116.7282961634155</v>
       </c>
       <c r="AD4" t="n">
-        <v>82521.66042471703</v>
+        <v>94313.63940628813</v>
       </c>
       <c r="AE4" t="n">
-        <v>112909.7763917698</v>
+        <v>129044.0822597443</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422201068485743e-06</v>
+        <v>1.403362812150638e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.098958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102133.8258028348</v>
+        <v>116728.2961634155</v>
       </c>
     </row>
     <row r="5">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.73757505692367</v>
+        <v>89.52955403849477</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.3639797326075</v>
+        <v>122.4982856005821</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.2127507897376</v>
+        <v>110.8072211503182</v>
       </c>
       <c r="AD5" t="n">
-        <v>77737.57505692367</v>
+        <v>89529.55403849477</v>
       </c>
       <c r="AE5" t="n">
-        <v>106363.9797326075</v>
+        <v>122498.2856005821</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.787126826784758e-06</v>
+        <v>1.472361648704279e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.001041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>96212.75078973759</v>
+        <v>110807.2211503182</v>
       </c>
     </row>
     <row r="6">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.23382752474856</v>
+        <v>74.11105785234025</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.15106838202779</v>
+        <v>101.4020189026515</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.02436992594234</v>
+        <v>91.72435253723525</v>
       </c>
       <c r="AD6" t="n">
-        <v>62233.82752474857</v>
+        <v>74111.05785234025</v>
       </c>
       <c r="AE6" t="n">
-        <v>85151.06838202779</v>
+        <v>101402.0189026515</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028815361789352e-06</v>
+        <v>1.518059238815215e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.940625</v>
       </c>
       <c r="AH6" t="n">
-        <v>77024.36992594234</v>
+        <v>91724.35253723525</v>
       </c>
     </row>
     <row r="7">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.18400432607125</v>
+        <v>71.06123465366294</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.97816573289603</v>
+        <v>97.22911625351978</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.24972324893676</v>
+        <v>87.94970586022964</v>
       </c>
       <c r="AD7" t="n">
-        <v>59184.00432607126</v>
+        <v>71061.23465366293</v>
       </c>
       <c r="AE7" t="n">
-        <v>80978.16573289603</v>
+        <v>97229.11625351978</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.224289938058537e-06</v>
+        <v>1.555018861510137e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.894791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>73249.72324893676</v>
+        <v>87949.70586022965</v>
       </c>
     </row>
     <row r="8">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.34558022956833</v>
+        <v>71.22281055716</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.19924101228638</v>
+        <v>97.45019153291011</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.44969941394325</v>
+        <v>88.14968202523615</v>
       </c>
       <c r="AD8" t="n">
-        <v>59345.58022956832</v>
+        <v>71222.81055716</v>
       </c>
       <c r="AE8" t="n">
-        <v>81199.24101228638</v>
+        <v>97450.19153291012</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.196920506186111e-06</v>
+        <v>1.549843948768614e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.901041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>73449.69941394325</v>
+        <v>88149.68202523615</v>
       </c>
     </row>
   </sheetData>
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.73751666141729</v>
+        <v>63.45185430019535</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.5260410280427</v>
+        <v>86.81762635174211</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.50881886678954</v>
+        <v>78.53187394205646</v>
       </c>
       <c r="AD2" t="n">
-        <v>53737.51666141728</v>
+        <v>63451.85430019535</v>
       </c>
       <c r="AE2" t="n">
-        <v>73526.0410280427</v>
+        <v>86817.6263517421</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727563958209531e-06</v>
+        <v>2.000852292324314e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.136458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>66508.81886678954</v>
+        <v>78531.87394205647</v>
       </c>
     </row>
     <row r="3">
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.08352172884221</v>
+        <v>63.79785936762027</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.9994604259595</v>
+        <v>87.29104574965889</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.93705578181761</v>
+        <v>78.96011085708453</v>
       </c>
       <c r="AD3" t="n">
-        <v>54083.52172884221</v>
+        <v>63797.85936762027</v>
       </c>
       <c r="AE3" t="n">
-        <v>73999.46042595949</v>
+        <v>87291.04574965889</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.720583482124748e-06</v>
+        <v>1.999251971588468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>66937.0557818176</v>
+        <v>78960.11085708452</v>
       </c>
     </row>
   </sheetData>
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9997784673264</v>
+        <v>145.3951586425343</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.3444085519177</v>
+        <v>198.9360704363218</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.8462755252677</v>
+        <v>179.9498910824641</v>
       </c>
       <c r="AD2" t="n">
-        <v>133999.7784673264</v>
+        <v>145395.1586425343</v>
       </c>
       <c r="AE2" t="n">
-        <v>183344.4085519177</v>
+        <v>198936.0704363218</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206881095228256e-06</v>
+        <v>1.020541498789335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.110416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165846.2755252677</v>
+        <v>179949.8910824641</v>
       </c>
     </row>
     <row r="3">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.23327049268266</v>
+        <v>92.54330981331891</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.146944447009</v>
+        <v>126.6218392092155</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5392360647312</v>
+        <v>114.5372285899889</v>
       </c>
       <c r="AD3" t="n">
-        <v>81233.27049268267</v>
+        <v>92543.30981331892</v>
       </c>
       <c r="AE3" t="n">
-        <v>111146.944447009</v>
+        <v>126621.8392092155</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271005876162799e-06</v>
+        <v>1.425107103245645e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.227083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100539.2360647312</v>
+        <v>114537.2285899889</v>
       </c>
     </row>
     <row r="4">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.79747941349747</v>
+        <v>83.10751873413372</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.23647881475127</v>
+        <v>113.7113735769578</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.86092715245977</v>
+        <v>102.8589196777174</v>
       </c>
       <c r="AD4" t="n">
-        <v>71797.47941349747</v>
+        <v>83107.51873413372</v>
       </c>
       <c r="AE4" t="n">
-        <v>98236.47881475126</v>
+        <v>113711.3735769578</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.040057564788205e-06</v>
+        <v>1.575840171391852e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.014583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>88860.92715245977</v>
+        <v>102858.9196777174</v>
       </c>
     </row>
     <row r="5">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.12276795748792</v>
+        <v>66.51805862414476</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.42140296429963</v>
+        <v>91.01294237915538</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.22329012000789</v>
+        <v>82.32679489597777</v>
       </c>
       <c r="AD5" t="n">
-        <v>55122.76795748792</v>
+        <v>66518.05862414476</v>
       </c>
       <c r="AE5" t="n">
-        <v>75421.40296429963</v>
+        <v>91012.94237915537</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.460035043756507e-06</v>
+        <v>1.658155176863528e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.914583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>68223.29012000789</v>
+        <v>82326.79489597777</v>
       </c>
     </row>
     <row r="6">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.20332582334372</v>
+        <v>66.59861649000055</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.53162579032569</v>
+        <v>91.12316520518144</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.32299343421677</v>
+        <v>82.42649821018665</v>
       </c>
       <c r="AD6" t="n">
-        <v>55203.32582334372</v>
+        <v>66598.61649000055</v>
       </c>
       <c r="AE6" t="n">
-        <v>75531.62579032569</v>
+        <v>91123.16520518143</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.449306259584418e-06</v>
+        <v>1.656052349992908e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>68322.99343421677</v>
+        <v>82426.49821018665</v>
       </c>
     </row>
   </sheetData>
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4619938001188</v>
+        <v>182.5831561315355</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.1829348838878</v>
+        <v>249.8183292194079</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3598618003045</v>
+        <v>225.9760185010074</v>
       </c>
       <c r="AD2" t="n">
-        <v>159461.9938001189</v>
+        <v>182583.1561315355</v>
       </c>
       <c r="AE2" t="n">
-        <v>218182.9348838879</v>
+        <v>249818.3292194079</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.606877028858593e-06</v>
+        <v>8.857656658270306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.444791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197359.8618003045</v>
+        <v>225976.0185010074</v>
       </c>
     </row>
     <row r="3">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.66213462218872</v>
+        <v>104.2227605421726</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.7844205548917</v>
+        <v>142.6021789574259</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.6842934002181</v>
+        <v>128.9924271411829</v>
       </c>
       <c r="AD3" t="n">
-        <v>92662.13462218872</v>
+        <v>104222.7605421726</v>
       </c>
       <c r="AE3" t="n">
-        <v>126784.4205548917</v>
+        <v>142602.1789574259</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.641038941928467e-06</v>
+        <v>1.276874603626644e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>114684.2934002181</v>
+        <v>128992.4271411829</v>
       </c>
     </row>
     <row r="4">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.78675906211198</v>
+        <v>91.34738498209583</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.1677636921228</v>
+        <v>124.985522094657</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.74894554329309</v>
+        <v>113.0570792842578</v>
       </c>
       <c r="AD4" t="n">
-        <v>79786.75906211199</v>
+        <v>91347.38498209583</v>
       </c>
       <c r="AE4" t="n">
-        <v>109167.7636921228</v>
+        <v>124985.522094657</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.522224719729258e-06</v>
+        <v>1.4463004646387e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>98748.94554329308</v>
+        <v>113057.0792842578</v>
       </c>
     </row>
     <row r="5">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.00170774487719</v>
+        <v>85.12278056774279</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.83347185880598</v>
+        <v>116.4687437247777</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.73708436914723</v>
+        <v>105.3531302886236</v>
       </c>
       <c r="AD5" t="n">
-        <v>62001.7077448772</v>
+        <v>85122.7805677428</v>
       </c>
       <c r="AE5" t="n">
-        <v>84833.47185880598</v>
+        <v>116468.7437247777</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.965559888021149e-06</v>
+        <v>1.531540654048292e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.992708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>76737.08436914723</v>
+        <v>105353.1302886236</v>
       </c>
     </row>
     <row r="6">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.26599701832566</v>
+        <v>69.91187428433008</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.72210763481502</v>
+        <v>95.6565106899985</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.11354157284759</v>
+        <v>86.52718756452455</v>
       </c>
       <c r="AD6" t="n">
-        <v>58265.99701832566</v>
+        <v>69911.87428433009</v>
       </c>
       <c r="AE6" t="n">
-        <v>79722.10763481502</v>
+        <v>95656.5106899985</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.220439522575217e-06</v>
+        <v>1.58054643991848e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.930208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>72113.54157284759</v>
+        <v>86527.18756452456</v>
       </c>
     </row>
     <row r="7">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.26907716502307</v>
+        <v>68.9149544310275</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.35807791052721</v>
+        <v>94.29248096571068</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.87969293101762</v>
+        <v>85.2933389226946</v>
       </c>
       <c r="AD7" t="n">
-        <v>57269.07716502307</v>
+        <v>68914.95443102749</v>
       </c>
       <c r="AE7" t="n">
-        <v>78358.07791052721</v>
+        <v>94292.48096571068</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.327997814263903e-06</v>
+        <v>1.601226705802732e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.905208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>70879.69293101762</v>
+        <v>85293.3389226946</v>
       </c>
     </row>
   </sheetData>
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.1316280554065</v>
+        <v>273.232087588128</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.8728844169775</v>
+        <v>373.8481963870432</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.3404547464208</v>
+        <v>338.168649223102</v>
       </c>
       <c r="AD2" t="n">
-        <v>249131.6280554064</v>
+        <v>273232.0875881281</v>
       </c>
       <c r="AE2" t="n">
-        <v>340872.8844169775</v>
+        <v>373848.1963870432</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.533773758063125e-06</v>
+        <v>6.583152487167995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.334375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>308340.4547464208</v>
+        <v>338168.649223102</v>
       </c>
     </row>
     <row r="3">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3699079147528</v>
+        <v>118.5481042086938</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5400007180454</v>
+        <v>162.2027461515094</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6498673162285</v>
+        <v>146.7223437118381</v>
       </c>
       <c r="AD3" t="n">
-        <v>106369.9079147528</v>
+        <v>118548.1042086938</v>
       </c>
       <c r="AE3" t="n">
-        <v>145540.0007180454</v>
+        <v>162202.7461515094</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.075690997540435e-06</v>
+        <v>1.13185515089809e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>131649.8673162285</v>
+        <v>146722.3437118381</v>
       </c>
     </row>
     <row r="4">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.09643505945863</v>
+        <v>102.1040391528074</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.27391722249</v>
+        <v>139.7032508811072</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.5088275788374</v>
+        <v>126.3701686917959</v>
       </c>
       <c r="AD4" t="n">
-        <v>90096.43505945863</v>
+        <v>102104.0391528074</v>
       </c>
       <c r="AE4" t="n">
-        <v>123273.91722249</v>
+        <v>139703.2508811071</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.000198326280098e-06</v>
+        <v>1.304083854184783e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.188541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>111508.8275788374</v>
+        <v>126370.1686917959</v>
       </c>
     </row>
     <row r="5">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.29877684265743</v>
+        <v>96.30638093600624</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.3413054756377</v>
+        <v>131.7706391342549</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.3332931636117</v>
+        <v>119.1946342765702</v>
       </c>
       <c r="AD5" t="n">
-        <v>84298.77684265743</v>
+        <v>96306.38093600623</v>
       </c>
       <c r="AE5" t="n">
-        <v>115341.3054756377</v>
+        <v>131770.6391342549</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.399146693207203e-06</v>
+        <v>1.378404909062594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.069791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104333.2931636117</v>
+        <v>119194.6342765702</v>
       </c>
     </row>
     <row r="6">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.09475199521697</v>
+        <v>93.10235608856576</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.9574173277717</v>
+        <v>127.3867509863889</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.3677971477509</v>
+        <v>115.2291382607095</v>
       </c>
       <c r="AD6" t="n">
-        <v>81094.75199521697</v>
+        <v>93102.35608856575</v>
       </c>
       <c r="AE6" t="n">
-        <v>110957.4173277717</v>
+        <v>127386.7509863889</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.600753110847108e-06</v>
+        <v>1.41596265555632e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>100367.7971477509</v>
+        <v>115229.1382607095</v>
       </c>
     </row>
     <row r="7">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.41974965363644</v>
+        <v>77.51260509300583</v>
       </c>
       <c r="AB7" t="n">
-        <v>89.51018759173461</v>
+        <v>106.056165903001</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.96746091633837</v>
+        <v>95.93431428000916</v>
       </c>
       <c r="AD7" t="n">
-        <v>65419.74965363645</v>
+        <v>77512.60509300583</v>
       </c>
       <c r="AE7" t="n">
-        <v>89510.1875917346</v>
+        <v>106056.165903001</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.820005604429237e-06</v>
+        <v>1.456807732158907e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>80967.46091633837</v>
+        <v>95934.31428000916</v>
       </c>
     </row>
     <row r="8">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.89005274673272</v>
+        <v>74.98290818610208</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.04894468135961</v>
+        <v>102.594922992626</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.83655417144354</v>
+        <v>92.80340753511433</v>
       </c>
       <c r="AD8" t="n">
-        <v>62890.05274673272</v>
+        <v>74982.90818610208</v>
       </c>
       <c r="AE8" t="n">
-        <v>86048.94468135962</v>
+        <v>102594.922992626</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.955733338551506e-06</v>
+        <v>1.482092779579555e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="AH8" t="n">
-        <v>77836.55417144354</v>
+        <v>92803.40753511433</v>
       </c>
     </row>
     <row r="9">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.00858694660758</v>
+        <v>74.10144238597698</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.84288428610246</v>
+        <v>101.3888625973689</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.74559848759294</v>
+        <v>91.71245185126375</v>
       </c>
       <c r="AD9" t="n">
-        <v>62008.58694660758</v>
+        <v>74101.44238597697</v>
       </c>
       <c r="AE9" t="n">
-        <v>84842.88428610246</v>
+        <v>101388.8625973689</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.025876490421846e-06</v>
+        <v>1.495159916762274e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>76745.59848759294</v>
+        <v>91712.45185126374</v>
       </c>
     </row>
   </sheetData>
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9280711685379</v>
+        <v>124.0836972921841</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.4624837218702</v>
+        <v>169.7767888214682</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1523800123177</v>
+        <v>153.5735303796141</v>
       </c>
       <c r="AD2" t="n">
-        <v>101928.0711685379</v>
+        <v>124083.6972921841</v>
       </c>
       <c r="AE2" t="n">
-        <v>139462.4837218702</v>
+        <v>169776.7888214682</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.884760984373196e-06</v>
+        <v>1.179598782777353e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.815625</v>
       </c>
       <c r="AH2" t="n">
-        <v>126152.3800123177</v>
+        <v>153573.5303796141</v>
       </c>
     </row>
     <row r="3">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.90302326285871</v>
+        <v>82.93825540594703</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.38088856571328</v>
+        <v>113.4797800239619</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.99155463947037</v>
+        <v>102.6494290883757</v>
       </c>
       <c r="AD3" t="n">
-        <v>71903.02326285871</v>
+        <v>82938.25540594703</v>
       </c>
       <c r="AE3" t="n">
-        <v>98380.88856571328</v>
+        <v>113479.7800239619</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.888452817472608e-06</v>
+        <v>1.581238280738499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.101041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88991.55463947037</v>
+        <v>102649.4290883757</v>
       </c>
     </row>
     <row r="4">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.94122236577372</v>
+        <v>64.0617058548826</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.43651604271875</v>
+        <v>87.65205215361657</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.52327661690663</v>
+        <v>79.28666331652425</v>
       </c>
       <c r="AD4" t="n">
-        <v>52941.22236577372</v>
+        <v>64061.70585488261</v>
       </c>
       <c r="AE4" t="n">
-        <v>72436.51604271875</v>
+        <v>87652.05215361656</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60450021253259e-06</v>
+        <v>1.724769791681185e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.926041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>65523.27661690663</v>
+        <v>79286.66331652425</v>
       </c>
     </row>
     <row r="5">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.49577989063856</v>
+        <v>63.61626337974745</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.82704199670407</v>
+        <v>87.04257810760186</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.97196991844119</v>
+        <v>78.73535661805882</v>
       </c>
       <c r="AD5" t="n">
-        <v>52495.77989063856</v>
+        <v>63616.26337974745</v>
       </c>
       <c r="AE5" t="n">
-        <v>71827.04199670407</v>
+        <v>87042.57810760186</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.635681125536758e-06</v>
+        <v>1.731019997445407e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.91875</v>
       </c>
       <c r="AH5" t="n">
-        <v>64971.96991844119</v>
+        <v>78735.35661805881</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.02261767461032</v>
+        <v>85.58261533546163</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6492552666619</v>
+        <v>117.0979099404485</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.8525544131721</v>
+        <v>105.9222497637113</v>
       </c>
       <c r="AD2" t="n">
-        <v>75022.61767461032</v>
+        <v>85582.61533546163</v>
       </c>
       <c r="AE2" t="n">
-        <v>102649.2552666619</v>
+        <v>117097.9099404485</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260644895084751e-06</v>
+        <v>1.518972318612465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.377083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92852.5544131721</v>
+        <v>105922.2497637113</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.20827665887427</v>
+        <v>71.32809296347483</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.69717915748555</v>
+        <v>97.59424356596195</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.14081679580661</v>
+        <v>88.27998593443185</v>
       </c>
       <c r="AD3" t="n">
-        <v>50208.27665887427</v>
+        <v>71328.09296347483</v>
       </c>
       <c r="AE3" t="n">
-        <v>68697.17915748555</v>
+        <v>97594.24356596195</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.655138134509093e-06</v>
+        <v>1.810709025170275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>62140.81679580661</v>
+        <v>88279.98593443185</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.2362136068509</v>
+        <v>59.8814626137228</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.36715960531259</v>
+        <v>81.93245893174843</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.93773244299848</v>
+        <v>74.1129400442499</v>
       </c>
       <c r="AD4" t="n">
-        <v>49236.2136068509</v>
+        <v>59881.4626137228</v>
       </c>
       <c r="AE4" t="n">
-        <v>67367.1596053126</v>
+        <v>81932.45893174844</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.785058835603412e-06</v>
+        <v>1.837889248336208e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.964583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>60937.73244299848</v>
+        <v>74112.9400442499</v>
       </c>
     </row>
   </sheetData>
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.96227193679785</v>
+        <v>75.14240579367113</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.88424639706389</v>
+        <v>102.8131546558397</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.40125867077285</v>
+        <v>93.00081147468102</v>
       </c>
       <c r="AD2" t="n">
-        <v>64962.27193679785</v>
+        <v>75142.40579367113</v>
       </c>
       <c r="AE2" t="n">
-        <v>88884.24639706389</v>
+        <v>102813.1546558397</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.886908701535046e-06</v>
+        <v>1.714500198716595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.264583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80401.25867077285</v>
+        <v>93000.81147468102</v>
       </c>
     </row>
     <row r="3">
@@ -19922,28 +19922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.88174603124661</v>
+        <v>67.0618798881199</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.82811436545092</v>
+        <v>91.75702262422672</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.40030836287472</v>
+        <v>82.99986116678292</v>
       </c>
       <c r="AD3" t="n">
-        <v>56881.74603124661</v>
+        <v>67061.8798881199</v>
       </c>
       <c r="AE3" t="n">
-        <v>77828.11436545092</v>
+        <v>91757.02262422672</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.86282965523525e-06</v>
+        <v>1.926651338329131e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.014583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70400.30836287473</v>
+        <v>82999.86116678292</v>
       </c>
     </row>
   </sheetData>
@@ -20219,28 +20219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.12868881479031</v>
+        <v>61.55581480981017</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.32477179181343</v>
+        <v>84.22338147363963</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.51763567696452</v>
+        <v>76.1852201540737</v>
       </c>
       <c r="AD2" t="n">
-        <v>52128.68881479031</v>
+        <v>61555.81480981017</v>
       </c>
       <c r="AE2" t="n">
-        <v>71324.77179181343</v>
+        <v>84223.38147363963</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.467450834964208e-06</v>
+        <v>2.014006012326827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.263541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64517.63567696452</v>
+        <v>76185.2201540737</v>
       </c>
     </row>
   </sheetData>
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.2497866271247</v>
+        <v>157.7731324368291</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.1054101483635</v>
+        <v>215.8721602593311</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.0076306535675</v>
+        <v>195.2696242627222</v>
       </c>
       <c r="AD2" t="n">
-        <v>146249.7866271247</v>
+        <v>157773.1324368291</v>
       </c>
       <c r="AE2" t="n">
-        <v>200105.4101483635</v>
+        <v>215872.1602593311</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.893673048131564e-06</v>
+        <v>9.496555210606382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>181007.6306535675</v>
+        <v>195269.6242627222</v>
       </c>
     </row>
     <row r="3">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.09827100389512</v>
+        <v>97.53627595902796</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.8034527751214</v>
+        <v>133.4534357638914</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.5604565804788</v>
+        <v>120.7168271576947</v>
       </c>
       <c r="AD3" t="n">
-        <v>86098.27100389512</v>
+        <v>97536.27595902796</v>
       </c>
       <c r="AE3" t="n">
-        <v>117803.4527751214</v>
+        <v>133453.4357638914</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.993071710837734e-06</v>
+        <v>1.357060247804172e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>106560.4565804788</v>
+        <v>120716.8271576947</v>
       </c>
     </row>
     <row r="4">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.62819317045629</v>
+        <v>88.06619812558912</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.846074493069</v>
+        <v>120.496057481839</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.83971229586675</v>
+        <v>108.9960828730826</v>
       </c>
       <c r="AD4" t="n">
-        <v>76628.19317045629</v>
+        <v>88066.19812558913</v>
       </c>
       <c r="AE4" t="n">
-        <v>104846.074493069</v>
+        <v>120496.057481839</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.69641026897537e-06</v>
+        <v>1.493548594765818e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.082291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>94839.71229586675</v>
+        <v>108996.0828730826</v>
       </c>
     </row>
     <row r="5">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.37699819437053</v>
+        <v>69.90025449552395</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.87398434090582</v>
+        <v>95.64061198232507</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.25092337926942</v>
+        <v>86.51280620719749</v>
       </c>
       <c r="AD5" t="n">
-        <v>58376.99819437053</v>
+        <v>69900.25449552396</v>
       </c>
       <c r="AE5" t="n">
-        <v>79873.98434090582</v>
+        <v>95640.61198232506</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.22018284650775e-06</v>
+        <v>1.595190759075037e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH5" t="n">
-        <v>72250.92337926943</v>
+        <v>86512.80620719749</v>
       </c>
     </row>
     <row r="6">
@@ -20940,28 +20940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.06391437716004</v>
+        <v>67.58717067831346</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.70912101614404</v>
+        <v>92.47574865756327</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.38811016830833</v>
+        <v>83.64999299623639</v>
       </c>
       <c r="AD6" t="n">
-        <v>56063.91437716004</v>
+        <v>67587.17067831346</v>
       </c>
       <c r="AE6" t="n">
-        <v>76709.12101614404</v>
+        <v>92475.74865756328</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.40174913366645e-06</v>
+        <v>1.630425116855554e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.907291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>69388.11016830833</v>
+        <v>83649.9929962364</v>
       </c>
     </row>
   </sheetData>
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.1338861037082</v>
+        <v>249.0222961659362</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.0381151730251</v>
+        <v>340.7232917024219</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.6393897952128</v>
+        <v>308.2051389505876</v>
       </c>
       <c r="AD2" t="n">
-        <v>225133.8861037082</v>
+        <v>249022.2961659362</v>
       </c>
       <c r="AE2" t="n">
-        <v>308038.1151730251</v>
+        <v>340723.2917024218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.787208708029181e-06</v>
+        <v>7.106288990272254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>278639.3897952128</v>
+        <v>308205.1389505876</v>
       </c>
     </row>
     <row r="3">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.716540275546</v>
+        <v>116.788711834242</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.2777901726515</v>
+        <v>159.7954678858721</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6035589702539</v>
+        <v>144.5448127052362</v>
       </c>
       <c r="AD3" t="n">
-        <v>104716.540275546</v>
+        <v>116788.711834242</v>
       </c>
       <c r="AE3" t="n">
-        <v>143277.7901726515</v>
+        <v>159795.4678858721</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.132899795689569e-06</v>
+        <v>1.150772551936579e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.51875</v>
       </c>
       <c r="AH3" t="n">
-        <v>129603.5589702539</v>
+        <v>144544.8127052362</v>
       </c>
     </row>
     <row r="4">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.74633923243074</v>
+        <v>97.64791859053445</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.3219241992701</v>
+        <v>133.6061901376438</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.124884416077</v>
+        <v>120.8550028684083</v>
       </c>
       <c r="AD4" t="n">
-        <v>85746.33923243074</v>
+        <v>97647.91859053445</v>
       </c>
       <c r="AE4" t="n">
-        <v>117321.9241992701</v>
+        <v>133606.1901376438</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.245101366393778e-06</v>
+        <v>1.359465190398846e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.132291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>106124.884416077</v>
+        <v>120855.0028684083</v>
       </c>
     </row>
     <row r="5">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.05387666838992</v>
+        <v>92.95545602649366</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.9014899023148</v>
+        <v>127.1857558406885</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.317207357285</v>
+        <v>115.0473258096163</v>
       </c>
       <c r="AD5" t="n">
-        <v>81053.87666838992</v>
+        <v>92955.45602649366</v>
       </c>
       <c r="AE5" t="n">
-        <v>110901.4899023148</v>
+        <v>127185.7558406885</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.5899861622154e-06</v>
+        <v>1.424179105485265e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.035416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>100317.207357285</v>
+        <v>115047.3258096163</v>
       </c>
     </row>
     <row r="6">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.33871638138588</v>
+        <v>77.32554708551019</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.39931429370577</v>
+        <v>105.8002248847287</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.86716921026172</v>
+        <v>95.70279991330526</v>
       </c>
       <c r="AD6" t="n">
-        <v>65338.71638138588</v>
+        <v>77325.54708551019</v>
       </c>
       <c r="AE6" t="n">
-        <v>89399.31429370577</v>
+        <v>105800.2248847287</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.830189674352557e-06</v>
+        <v>1.4692507058464e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.972916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>80867.16921026172</v>
+        <v>95702.79991330525</v>
       </c>
     </row>
     <row r="7">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.06297385103031</v>
+        <v>74.04980455515461</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.91729884811447</v>
+        <v>101.3182094391375</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.81291102824805</v>
+        <v>91.6485417312916</v>
       </c>
       <c r="AD7" t="n">
-        <v>62062.97385103031</v>
+        <v>74049.80455515461</v>
       </c>
       <c r="AE7" t="n">
-        <v>84917.29884811447</v>
+        <v>101318.2094391375</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.037328135127625e-06</v>
+        <v>1.508118005663996e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>76812.91102824805</v>
+        <v>91648.5417312916</v>
       </c>
     </row>
     <row r="8">
@@ -21873,28 +21873,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.72909505791281</v>
+        <v>72.7159257620371</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.09222703679285</v>
+        <v>99.49313762781583</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.162021509094</v>
+        <v>89.99765221213752</v>
       </c>
       <c r="AD8" t="n">
-        <v>60729.09505791281</v>
+        <v>72715.92576203711</v>
       </c>
       <c r="AE8" t="n">
-        <v>83092.22703679284</v>
+        <v>99493.13762781583</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.094710085249278e-06</v>
+        <v>1.518885110194711e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>75162.021509094</v>
+        <v>89997.65221213753</v>
       </c>
     </row>
   </sheetData>
@@ -22170,28 +22170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.70353718644095</v>
+        <v>59.94907100424584</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.37481646065437</v>
+        <v>82.02496371433371</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.75378134583116</v>
+        <v>74.19661630021655</v>
       </c>
       <c r="AD2" t="n">
-        <v>50703.53718644095</v>
+        <v>59949.07100424584</v>
       </c>
       <c r="AE2" t="n">
-        <v>69374.81646065437</v>
+        <v>82024.9637143337</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.784964882550391e-06</v>
+        <v>1.946960637391956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.548958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62753.78134583116</v>
+        <v>74196.61630021654</v>
       </c>
     </row>
   </sheetData>
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.31386741205108</v>
+        <v>95.21315524096548</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3619530584311</v>
+        <v>130.2748395085871</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3519701700823</v>
+        <v>117.8415916678077</v>
       </c>
       <c r="AD2" t="n">
-        <v>84313.86741205108</v>
+        <v>95213.15524096548</v>
       </c>
       <c r="AE2" t="n">
-        <v>115361.9530584311</v>
+        <v>130274.8395085871</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.68761444309184e-06</v>
+        <v>1.377169379693784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.54375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104351.9701700823</v>
+        <v>117841.5916678077</v>
       </c>
     </row>
     <row r="3">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.76594952510334</v>
+        <v>74.49464515342555</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.24738529536434</v>
+        <v>101.9268599706735</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.92061729527002</v>
+        <v>92.19910351034446</v>
       </c>
       <c r="AD3" t="n">
-        <v>63765.94952510334</v>
+        <v>74494.64515342555</v>
       </c>
       <c r="AE3" t="n">
-        <v>87247.38529536434</v>
+        <v>101926.8599706735</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.500241608826204e-06</v>
+        <v>1.750440693507205e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.001041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78920.61729527001</v>
+        <v>92199.10351034446</v>
       </c>
     </row>
     <row r="4">
@@ -22679,28 +22679,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.23994039404002</v>
+        <v>61.0538873683828</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.74050287684472</v>
+        <v>83.53662220480314</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.18000576019539</v>
+        <v>75.56400422598206</v>
       </c>
       <c r="AD4" t="n">
-        <v>50239.94039404002</v>
+        <v>61053.8873683828</v>
       </c>
       <c r="AE4" t="n">
-        <v>68740.50287684471</v>
+        <v>83536.62220480313</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.756622207943587e-06</v>
+        <v>1.803236726181716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.942708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>62180.00576019539</v>
+        <v>75564.00422598206</v>
       </c>
     </row>
   </sheetData>
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9173309121739</v>
+        <v>134.3546047151491</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1302295981433</v>
+        <v>183.8298974780177</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5156954049654</v>
+        <v>166.2854300696489</v>
       </c>
       <c r="AD2" t="n">
-        <v>111917.3309121739</v>
+        <v>134354.6047151491</v>
       </c>
       <c r="AE2" t="n">
-        <v>153130.2295981433</v>
+        <v>183829.8974780177</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.527948434715973e-06</v>
+        <v>1.095188360961403e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>138515.6954049654</v>
+        <v>166285.4300696489</v>
       </c>
     </row>
     <row r="3">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.46282370301782</v>
+        <v>87.63887968577065</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.6198086921338</v>
+        <v>119.9113815405206</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.63504098540669</v>
+        <v>108.4672075830056</v>
       </c>
       <c r="AD3" t="n">
-        <v>76462.82370301781</v>
+        <v>87638.87968577065</v>
       </c>
       <c r="AE3" t="n">
-        <v>104619.8086921338</v>
+        <v>119911.3815405206</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.572786243075357e-06</v>
+        <v>1.500308378670846e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>94635.0409854067</v>
+        <v>108467.2075830056</v>
       </c>
     </row>
     <row r="4">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.76320010732388</v>
+        <v>68.02450743609728</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.66591460246285</v>
+        <v>93.07413210349888</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.2535887176174</v>
+        <v>84.19126756592853</v>
       </c>
       <c r="AD4" t="n">
-        <v>56763.20010732388</v>
+        <v>68024.50743609728</v>
       </c>
       <c r="AE4" t="n">
-        <v>77665.91460246284</v>
+        <v>93074.13210349888</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.310946592932908e-06</v>
+        <v>1.64655153437943e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.970833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>70253.5887176174</v>
+        <v>84191.26756592853</v>
       </c>
     </row>
     <row r="5">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.87632657464523</v>
+        <v>65.13763390341863</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.71596687518226</v>
+        <v>89.12418437621827</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.68061845764075</v>
+        <v>80.61829730595188</v>
       </c>
       <c r="AD5" t="n">
-        <v>53876.32657464523</v>
+        <v>65137.63390341863</v>
       </c>
       <c r="AE5" t="n">
-        <v>73715.96687518226</v>
+        <v>89124.18437621827</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.529486078833225e-06</v>
+        <v>1.68984823010572e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.919791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>66680.61845764075</v>
+        <v>80618.29730595188</v>
       </c>
     </row>
   </sheetData>
